--- a/playstation/output/origins_distinct_developers.xlsx
+++ b/playstation/output/origins_distinct_developers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
   <si>
     <t>Developer</t>
   </si>
@@ -19,7 +19,13 @@
     <t>10tons</t>
   </si>
   <si>
-    <t>2K Czech</t>
+    <t>2K Australia</t>
+  </si>
+  <si>
+    <t>2K Boston (Irrational Games)</t>
+  </si>
+  <si>
+    <t>2K Marin</t>
   </si>
   <si>
     <t>2pt Interactive</t>
@@ -34,9 +40,6 @@
     <t>5th Cell</t>
   </si>
   <si>
-    <t>989 Studios</t>
-  </si>
-  <si>
     <t>Abstraction Games</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>ACQUIRE Corp</t>
   </si>
   <si>
+    <t>Adglobe Live Wire</t>
+  </si>
+  <si>
     <t>Aggro Crab</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
     <t>Airtight Games</t>
   </si>
   <si>
+    <t>All Possible Futures</t>
+  </si>
+  <si>
     <t>Alphanu Game Studios</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t>Ant Workshop</t>
   </si>
   <si>
+    <t>Applava</t>
+  </si>
+  <si>
     <t>Aqua Style</t>
   </si>
   <si>
@@ -76,15 +88,15 @@
     <t>Arrowhead Game Studios</t>
   </si>
   <si>
-    <t>Artificial Mind and Movement</t>
-  </si>
-  <si>
     <t>Asobo Studio</t>
   </si>
   <si>
     <t>Asteroid Base</t>
   </si>
   <si>
+    <t>Atari SA (Infogrames Lyon House)</t>
+  </si>
+  <si>
     <t>Atlus</t>
   </si>
   <si>
@@ -100,6 +112,9 @@
     <t>Awfully Nice Studios</t>
   </si>
   <si>
+    <t>B.B. Studio</t>
+  </si>
+  <si>
     <t>Bamtang Games</t>
   </si>
   <si>
@@ -118,13 +133,13 @@
     <t>Beenox</t>
   </si>
   <si>
-    <t>Behaviour Interactive</t>
+    <t>Behaviour Interactive (Artificial Mind and Movement)</t>
   </si>
   <si>
     <t>Ben Esposito</t>
   </si>
   <si>
-    <t>Bend Studio</t>
+    <t>Bend Studio (Eidetic)</t>
   </si>
   <si>
     <t>Benjamin Rivers Inc</t>
@@ -139,18 +154,24 @@
     <t>Big Ant Studios</t>
   </si>
   <si>
+    <t>Big Huge Games</t>
+  </si>
+  <si>
     <t>Billy Goat Entertainment Ltd</t>
   </si>
   <si>
     <t>Bimboosoft</t>
   </si>
   <si>
-    <t>Bioware</t>
+    <t>BioWare</t>
   </si>
   <si>
     <t>Bit Planet Games</t>
   </si>
   <si>
+    <t>Bithell Games</t>
+  </si>
+  <si>
     <t>Bizarre Creations</t>
   </si>
   <si>
@@ -160,9 +181,6 @@
     <t>Black Matter Games</t>
   </si>
   <si>
-    <t>Blind Squirrel Games</t>
-  </si>
-  <si>
     <t>Bloober Team</t>
   </si>
   <si>
@@ -184,6 +202,9 @@
     <t>Breaking Walls</t>
   </si>
   <si>
+    <t>Brownies</t>
+  </si>
+  <si>
     <t>BUG-Studio</t>
   </si>
   <si>
@@ -199,7 +220,7 @@
     <t>Capcom</t>
   </si>
   <si>
-    <t>Capcom Vancouver</t>
+    <t>Capcom Vancouver (Blue Castle Games)</t>
   </si>
   <si>
     <t>Capybara Games</t>
@@ -223,9 +244,6 @@
     <t>Chequered Ink Ltd</t>
   </si>
   <si>
-    <t>Chilled Mouse</t>
-  </si>
-  <si>
     <t>Christian Whitehead</t>
   </si>
   <si>
@@ -250,6 +268,9 @@
     <t>Codemasters</t>
   </si>
   <si>
+    <t>Codemasters Birmingham</t>
+  </si>
+  <si>
     <t>Coffee Stain Studios</t>
   </si>
   <si>
@@ -268,10 +289,7 @@
     <t>Colossal Order</t>
   </si>
   <si>
-    <t>ConcernedApe</t>
-  </si>
-  <si>
-    <t>Core Design</t>
+    <t>ConcernedApe (Eric Barone)</t>
   </si>
   <si>
     <t>Counterplay Games</t>
@@ -307,6 +325,9 @@
     <t>Cyanide</t>
   </si>
   <si>
+    <t>Dambuster Studios (Deep Silver)</t>
+  </si>
+  <si>
     <t>Daylight Studios</t>
   </si>
   <si>
@@ -340,9 +361,6 @@
     <t>Dontnod Entertainment</t>
   </si>
   <si>
-    <t>Double Eleven</t>
-  </si>
-  <si>
     <t>Double Fine Productions</t>
   </si>
   <si>
@@ -355,24 +373,24 @@
     <t>Drinkbox Studios</t>
   </si>
   <si>
+    <t>DryGin Studios</t>
+  </si>
+  <si>
     <t>Dynamighty</t>
   </si>
   <si>
     <t>EA Black Box</t>
   </si>
   <si>
-    <t>EA DICE</t>
-  </si>
-  <si>
-    <t>EA Gothenburg</t>
+    <t>EA DICE (Digital Illusions CE)</t>
+  </si>
+  <si>
+    <t>EA Gothenburg (Ghost Games)</t>
   </si>
   <si>
     <t>EA Montreal</t>
   </si>
   <si>
-    <t>EA Redwood Shores</t>
-  </si>
-  <si>
     <t>EA Tiburon</t>
   </si>
   <si>
@@ -406,6 +424,9 @@
     <t>Evolution Studios</t>
   </si>
   <si>
+    <t>Exact (EXcellent Application Create Team)</t>
+  </si>
+  <si>
     <t>Exordium Games</t>
   </si>
   <si>
@@ -415,9 +436,6 @@
     <t>Extra Mile Studios</t>
   </si>
   <si>
-    <t>Extremely OK Games</t>
-  </si>
-  <si>
     <t>Facepalm Games</t>
   </si>
   <si>
@@ -433,9 +451,6 @@
     <t>Fiddlesticks</t>
   </si>
   <si>
-    <t>Finish Line Games</t>
-  </si>
-  <si>
     <t>Firaxis Games</t>
   </si>
   <si>
@@ -451,9 +466,6 @@
     <t>FitXR</t>
   </si>
   <si>
-    <t>FlippFly</t>
-  </si>
-  <si>
     <t>Flying Wild Hog</t>
   </si>
   <si>
@@ -478,9 +490,6 @@
     <t>Frima Studio</t>
   </si>
   <si>
-    <t>Frogmind Games</t>
-  </si>
-  <si>
     <t>Frogwares</t>
   </si>
   <si>
@@ -517,6 +526,9 @@
     <t>Gameloft</t>
   </si>
   <si>
+    <t>Gameloft Montreal</t>
+  </si>
+  <si>
     <t>Gaming Minds Studios</t>
   </si>
   <si>
@@ -559,13 +571,10 @@
     <t>Grasshopper Manufacture</t>
   </si>
   <si>
-    <t>Greg Lobanov</t>
-  </si>
-  <si>
     <t>Grip Games</t>
   </si>
   <si>
-    <t>Guerrilla Cambridge</t>
+    <t>Guerrilla Cambridge (SCE Studio Cambridge)</t>
   </si>
   <si>
     <t>Guerrilla Games</t>
@@ -580,7 +589,7 @@
     <t>Halfbrick Studios</t>
   </si>
   <si>
-    <t>Hangar 13</t>
+    <t>Hangar 13 (2K Czech)</t>
   </si>
   <si>
     <t>HappyGiant</t>
@@ -610,9 +619,6 @@
     <t>High Moon Studios</t>
   </si>
   <si>
-    <t>High Voltage Software</t>
-  </si>
-  <si>
     <t>Hipster Whale</t>
   </si>
   <si>
@@ -640,7 +646,7 @@
     <t>HumaNature Studios</t>
   </si>
   <si>
-    <t>Humble Bundle</t>
+    <t>HypeHype (Frogmind)</t>
   </si>
   <si>
     <t>I-Illusions</t>
@@ -658,10 +664,7 @@
     <t>Infinity Ward</t>
   </si>
   <si>
-    <t>Infogrames Lyon House</t>
-  </si>
-  <si>
-    <t>Infogrames Sheffield</t>
+    <t>Infogrames Sheffield House (Gremlin Interactive)</t>
   </si>
   <si>
     <t>Infuse Studio</t>
@@ -682,6 +685,9 @@
     <t>Ion Storm</t>
   </si>
   <si>
+    <t>Ironwood Studios</t>
+  </si>
+  <si>
     <t>Isometricorp Games</t>
   </si>
   <si>
@@ -700,7 +706,7 @@
     <t>Jammed Up Studios</t>
   </si>
   <si>
-    <t>JanduSoft SL</t>
+    <t>JanduSoft</t>
   </si>
   <si>
     <t>Johnson Voorsanger Productions</t>
@@ -709,21 +715,18 @@
     <t>Juggler Games</t>
   </si>
   <si>
-    <t>Just Add Water Ltd</t>
+    <t>Just Add Water</t>
   </si>
   <si>
     <t>Jutsu Games</t>
   </si>
   <si>
-    <t>Kaiko</t>
+    <t>Klabater</t>
   </si>
   <si>
     <t>Klei Entertainment</t>
   </si>
   <si>
-    <t>Kojima Productions</t>
-  </si>
-  <si>
     <t>Konami</t>
   </si>
   <si>
@@ -796,6 +799,9 @@
     <t>MachineGames</t>
   </si>
   <si>
+    <t>Maddy Makes Games</t>
+  </si>
+  <si>
     <t>maJAJa</t>
   </si>
   <si>
@@ -823,10 +829,13 @@
     <t>Mediatonic</t>
   </si>
   <si>
+    <t>Mega Crit</t>
+  </si>
+  <si>
     <t>metricminds</t>
   </si>
   <si>
-    <t>Midway Games</t>
+    <t>Midway</t>
   </si>
   <si>
     <t>Mighty Rocket Studio</t>
@@ -835,9 +844,6 @@
     <t>miHoYo</t>
   </si>
   <si>
-    <t>Mike Bithell</t>
-  </si>
-  <si>
     <t>Milestone</t>
   </si>
   <si>
@@ -856,7 +862,7 @@
     <t>Monstars</t>
   </si>
   <si>
-    <t>Moppin</t>
+    <t>Moppin (Ojiro Fumoto)</t>
   </si>
   <si>
     <t>Mossmouth LLC</t>
@@ -865,6 +871,9 @@
     <t>Mothership Entertainment</t>
   </si>
   <si>
+    <t>Motive Studio</t>
+  </si>
+  <si>
     <t>Mouldy Toof Studios</t>
   </si>
   <si>
@@ -889,9 +898,6 @@
     <t>NetherRealm Studios</t>
   </si>
   <si>
-    <t>New Entertainment R&amp;D Dept</t>
-  </si>
-  <si>
     <t>Nicalis</t>
   </si>
   <si>
@@ -952,6 +958,9 @@
     <t>Pandemic Studios</t>
   </si>
   <si>
+    <t>Paon</t>
+  </si>
+  <si>
     <t>Parabole</t>
   </si>
   <si>
@@ -988,10 +997,10 @@
     <t>PlatinumGames</t>
   </si>
   <si>
-    <t>Play Em</t>
-  </si>
-  <si>
-    <t>Playbox</t>
+    <t>Play-Em</t>
+  </si>
+  <si>
+    <t>Playbox (Digital Reality)</t>
   </si>
   <si>
     <t>Playrise Digital Ltd</t>
@@ -1000,9 +1009,6 @@
     <t>Playtonic Games</t>
   </si>
   <si>
-    <t>Pocket Ohira Tech</t>
-  </si>
-  <si>
     <t>Polyarc</t>
   </si>
   <si>
@@ -1018,13 +1024,10 @@
     <t>Pretty Fly Studios</t>
   </si>
   <si>
-    <t>Project Venus</t>
-  </si>
-  <si>
     <t>Prospect Games</t>
   </si>
   <si>
-    <t>Psygnosis</t>
+    <t>Pseudo Interactive</t>
   </si>
   <si>
     <t>Psyonix</t>
@@ -1036,6 +1039,9 @@
     <t>Purple Lamp Studios</t>
   </si>
   <si>
+    <t>Q-Games</t>
+  </si>
+  <si>
     <t>Quantic Dream</t>
   </si>
   <si>
@@ -1048,7 +1054,7 @@
     <t>RageSquid</t>
   </si>
   <si>
-    <t>Rampage Game Studio</t>
+    <t>Rampage Game Studios</t>
   </si>
   <si>
     <t>Ratloop</t>
@@ -1060,13 +1066,13 @@
     <t>Re-Logic</t>
   </si>
   <si>
-    <t>Ready At Dawn</t>
+    <t>Ready At Dawn Studios</t>
   </si>
   <si>
     <t>Realmforge Studios</t>
   </si>
   <si>
-    <t>Rebellion Developments</t>
+    <t>Rebellion Developments (Core Design)</t>
   </si>
   <si>
     <t>Red Barrels</t>
@@ -1084,9 +1090,6 @@
     <t>RedLynx</t>
   </si>
   <si>
-    <t>Reflections Interactive</t>
-  </si>
-  <si>
     <t>Relentless Software</t>
   </si>
   <si>
@@ -1129,13 +1132,13 @@
     <t>Romero Games</t>
   </si>
   <si>
-    <t>Rovio Entertainment</t>
+    <t>Rovio Entertainment (Housemarque)</t>
   </si>
   <si>
     <t>Running With Scissors</t>
   </si>
   <si>
-    <t>Ryu Ga Gotoku</t>
+    <t>Ryu Ga Gotoku Studio</t>
   </si>
   <si>
     <t>Saber Interactive</t>
@@ -1165,15 +1168,15 @@
     <t>Sergey Noskov</t>
   </si>
   <si>
+    <t>Shared Memory</t>
+  </si>
+  <si>
     <t>Shedworks</t>
   </si>
   <si>
     <t>Shin`en Multimedia</t>
   </si>
   <si>
-    <t>Silverball Studios</t>
-  </si>
-  <si>
     <t>SingleTrac</t>
   </si>
   <si>
@@ -1198,15 +1201,9 @@
     <t>SMG Studio</t>
   </si>
   <si>
-    <t>Sniper Studios</t>
-  </si>
-  <si>
     <t>Snoozy Kazoo</t>
   </si>
   <si>
-    <t>Solfar Studios</t>
-  </si>
-  <si>
     <t>SoMa Play</t>
   </si>
   <si>
@@ -1219,6 +1216,9 @@
     <t>Sony Interactive Entertainment</t>
   </si>
   <si>
+    <t>Sony Interactive Studios America (989 Studios)</t>
+  </si>
+  <si>
     <t>SouthPAW Games</t>
   </si>
   <si>
@@ -1252,7 +1252,7 @@
     <t>Squanch Games</t>
   </si>
   <si>
-    <t>Square Enix</t>
+    <t>Square Enix (SquareSoft)</t>
   </si>
   <si>
     <t>Starbreeze Studios</t>
@@ -1264,6 +1264,9 @@
     <t>Striking Distance Studios</t>
   </si>
   <si>
+    <t>Studio Liverpool (Psygnosis)</t>
+  </si>
+  <si>
     <t>Studio Wildcard</t>
   </si>
   <si>
@@ -1297,6 +1300,9 @@
     <t>Systemic Reaction</t>
   </si>
   <si>
+    <t>Tabot Inc</t>
+  </si>
+  <si>
     <t>Tamsoft</t>
   </si>
   <si>
@@ -1306,7 +1312,7 @@
     <t>Tarsier Studios</t>
   </si>
   <si>
-    <t>Team Arcana</t>
+    <t>Team Arcana (Examu)</t>
   </si>
   <si>
     <t>Team Asobi (Japan Studio)</t>
@@ -1351,6 +1357,9 @@
     <t>The Binary Mill</t>
   </si>
   <si>
+    <t>The Chinese Room</t>
+  </si>
+  <si>
     <t>The Domaginarium</t>
   </si>
   <si>
@@ -1390,7 +1399,7 @@
     <t>Titan Studios</t>
   </si>
   <si>
-    <t>tobyfox</t>
+    <t>Toby Fox</t>
   </si>
   <si>
     <t>Toge Productions</t>
@@ -1402,28 +1411,34 @@
     <t>Treyarch</t>
   </si>
   <si>
-    <t>Tribute Games</t>
+    <t>Tribute Games (Jonathan Lavigne)</t>
   </si>
   <si>
     <t>Trinity Team</t>
   </si>
   <si>
+    <t>Triple Eh? Ltd</t>
+  </si>
+  <si>
     <t>Tripwire Interactive</t>
   </si>
   <si>
-    <t>TT Games</t>
+    <t>TT Games (Travellers Tales)</t>
   </si>
   <si>
     <t>Turbo Button</t>
   </si>
   <si>
+    <t>Twistplay</t>
+  </si>
+  <si>
     <t>Two Point Studios</t>
   </si>
   <si>
     <t>Ubisoft Chengdu</t>
   </si>
   <si>
-    <t>Ubisoft Leamington</t>
+    <t>Ubisoft Leamington (FreeStyleGames and Exient Entertainment)</t>
   </si>
   <si>
     <t>Ubisoft Montpellier</t>
@@ -1432,6 +1447,9 @@
     <t>Ubisoft Montreal</t>
   </si>
   <si>
+    <t>Ubisoft Reflections (Reflections Interactive)</t>
+  </si>
+  <si>
     <t>Ubisoft San Francisco</t>
   </si>
   <si>
@@ -1441,6 +1459,9 @@
     <t>Ubisoft Toronto</t>
   </si>
   <si>
+    <t>Unbroken Studios</t>
+  </si>
+  <si>
     <t>Uncommon Chocolate</t>
   </si>
   <si>
@@ -1474,6 +1495,12 @@
     <t>Viewpoint Games</t>
   </si>
   <si>
+    <t>Vile Monarch</t>
+  </si>
+  <si>
+    <t>Visceral Games (EA Redwood Shores)</t>
+  </si>
+  <si>
     <t>Visual Concepts</t>
   </si>
   <si>
@@ -1516,6 +1543,9 @@
     <t>Wish Studios</t>
   </si>
   <si>
+    <t>Wishes Unlimited (Greg Lobanov)</t>
+  </si>
+  <si>
     <t>Witch Beam</t>
   </si>
   <si>
@@ -1534,9 +1564,6 @@
     <t>Xaloc Studios</t>
   </si>
   <si>
-    <t>XDev</t>
-  </si>
-  <si>
     <t>Yacht Club Games</t>
   </si>
   <si>
@@ -1549,7 +1576,7 @@
     <t>Young Horses</t>
   </si>
   <si>
-    <t>Yuke`s</t>
+    <t>Yukes</t>
   </si>
 </sst>
 </file>
@@ -1830,6 +1857,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="52.88"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -9572,7 +9602,7 @@
       <c r="Z258" s="2"/>
     </row>
     <row r="259">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B259" s="2"/>
@@ -9602,7 +9632,7 @@
       <c r="Z259" s="2"/>
     </row>
     <row r="260">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="4" t="s">
         <v>259</v>
       </c>
       <c r="B260" s="2"/>
@@ -11492,7 +11522,7 @@
       <c r="Z322" s="2"/>
     </row>
     <row r="323">
-      <c r="A323" s="4" t="s">
+      <c r="A323" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B323" s="2"/>
@@ -11582,7 +11612,7 @@
       <c r="Z325" s="2"/>
     </row>
     <row r="326">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="4" t="s">
         <v>325</v>
       </c>
       <c r="B326" s="2"/>
@@ -17222,7 +17252,9 @@
       <c r="Z513" s="2"/>
     </row>
     <row r="514">
-      <c r="A514" s="2"/>
+      <c r="A514" s="3" t="s">
+        <v>513</v>
+      </c>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -17250,7 +17282,9 @@
       <c r="Z514" s="2"/>
     </row>
     <row r="515">
-      <c r="A515" s="2"/>
+      <c r="A515" s="3" t="s">
+        <v>514</v>
+      </c>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -17278,7 +17312,9 @@
       <c r="Z515" s="2"/>
     </row>
     <row r="516">
-      <c r="A516" s="2"/>
+      <c r="A516" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -17306,7 +17342,9 @@
       <c r="Z516" s="2"/>
     </row>
     <row r="517">
-      <c r="A517" s="2"/>
+      <c r="A517" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -17334,7 +17372,9 @@
       <c r="Z517" s="2"/>
     </row>
     <row r="518">
-      <c r="A518" s="2"/>
+      <c r="A518" s="3" t="s">
+        <v>517</v>
+      </c>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -17362,7 +17402,9 @@
       <c r="Z518" s="2"/>
     </row>
     <row r="519">
-      <c r="A519" s="2"/>
+      <c r="A519" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -17390,7 +17432,9 @@
       <c r="Z519" s="2"/>
     </row>
     <row r="520">
-      <c r="A520" s="2"/>
+      <c r="A520" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -17418,7 +17462,9 @@
       <c r="Z520" s="2"/>
     </row>
     <row r="521">
-      <c r="A521" s="2"/>
+      <c r="A521" s="3" t="s">
+        <v>520</v>
+      </c>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -17446,7 +17492,9 @@
       <c r="Z521" s="2"/>
     </row>
     <row r="522">
-      <c r="A522" s="2"/>
+      <c r="A522" s="3" t="s">
+        <v>521</v>
+      </c>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -30887,8 +30935,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A259"/>
-    <hyperlink r:id="rId2" ref="A323"/>
+    <hyperlink r:id="rId1" ref="A260"/>
+    <hyperlink r:id="rId2" ref="A326"/>
   </hyperlinks>
   <drawing r:id="rId3"/>
 </worksheet>
